--- a/Data/EC/NIT-9008922205.xlsx
+++ b/Data/EC/NIT-9008922205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{516E354C-864A-4AC9-8A0D-584A25142F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{217FE63F-9CBE-4BBD-8276-682E59590878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{03C6E248-B2AD-4C22-BA97-55E93D81E62F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{75C690BA-187E-4D01-B3E2-E5CF074D59D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="115">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,252 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143326798</t>
+  </si>
+  <si>
+    <t>JHON LEIDER SALTARIN DE ALBA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
     <t>45560460</t>
   </si>
   <si>
@@ -92,253 +338,16 @@
     <t>1802</t>
   </si>
   <si>
-    <t>1143326798</t>
-  </si>
-  <si>
-    <t>JHON LEIDER SALTARIN DE ALBA</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
+    <t>1002494168</t>
+  </si>
+  <si>
+    <t>ANGELLI TOVAR GUZMAN</t>
   </si>
   <si>
     <t>1039086517</t>
   </si>
   <si>
     <t>DERLY FLORES RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -752,7 +761,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7565BF0E-9EB6-63E2-F8C1-43BE40B436D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E46F2B-4C0D-F731-D7F5-562C2ADC5B25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,8 +1112,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8687FF-0057-4842-92E0-833BC09D2910}">
-  <dimension ref="B2:J104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1246A719-402D-4094-AD39-F9A2ED94DEAA}">
+  <dimension ref="B2:J111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1128,7 +1137,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1173,7 +1182,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1205,12 +1214,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2504850</v>
+        <v>2776099</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1221,17 +1230,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F13" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1258,13 +1267,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1281,10 +1290,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>3935</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1295,19 +1304,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>7869</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1318,16 +1327,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>5208</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1341,16 +1350,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>10416</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1364,13 +1373,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1387,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1410,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1433,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1456,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1479,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1502,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1525,13 +1534,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1548,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1571,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1594,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1617,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1640,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1663,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1686,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1709,13 +1718,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1732,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1755,13 +1764,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1778,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1801,13 +1810,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1824,13 +1833,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1847,13 +1856,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1870,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1893,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1916,13 +1925,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1939,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1962,13 +1971,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1985,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -2008,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2031,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2054,13 +2063,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2077,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2100,13 +2109,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2123,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2146,13 +2155,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2169,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2192,13 +2201,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2215,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2238,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2261,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2284,13 +2293,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2307,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2330,13 +2339,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2353,19 +2362,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2376,13 +2385,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2399,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2422,13 +2431,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2445,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2468,13 +2477,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2491,13 +2500,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2514,13 +2523,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2537,13 +2546,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2560,13 +2569,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2583,13 +2592,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2606,13 +2615,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2629,13 +2638,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2652,13 +2661,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2675,13 +2684,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2698,13 +2707,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2721,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2744,13 +2753,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2767,13 +2776,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2790,13 +2799,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2813,13 +2822,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2836,13 +2845,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2859,13 +2868,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2882,13 +2891,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2905,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2928,13 +2937,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2951,13 +2960,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2974,13 +2983,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2997,13 +3006,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3020,13 +3029,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3043,13 +3052,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3066,13 +3075,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3089,16 +3098,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>10416</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3112,19 +3121,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>3935</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3135,75 +3144,236 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>7869</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="22" t="s">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" s="18">
+        <v>5208</v>
+      </c>
+      <c r="G98" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F98" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G98" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="26"/>
+      <c r="D99" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G99" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="H103" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G103" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" s="32"/>
-      <c r="H104" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G105" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="26"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="H110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="32"/>
+      <c r="H111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="H110:J110"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9008922205.xlsx
+++ b/Data/EC/NIT-9008922205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217FE63F-9CBE-4BBD-8276-682E59590878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3136BAE0-5193-4F45-91EF-398A456E51EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{75C690BA-187E-4D01-B3E2-E5CF074D59D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{17CC6AF5-708F-4933-9F9F-B8805613F820}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="114">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,289 +65,286 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45560460</t>
+  </si>
+  <si>
+    <t>KARINA DEL CARMEN GUZMAN VERGARA</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1128057218</t>
+  </si>
+  <si>
+    <t>MARIA MONICA LARA GAVIRIA</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>57460326</t>
+  </si>
+  <si>
+    <t>MAGDA MILENA VILLEGAS SANTA</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>1143326798</t>
   </si>
   <si>
     <t>JHON LEIDER SALTARIN DE ALBA</t>
   </si>
   <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>20376676</t>
+  </si>
+  <si>
+    <t>DERLY FLORES RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>45560460</t>
-  </si>
-  <si>
-    <t>KARINA DEL CARMEN GUZMAN VERGARA</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1128057218</t>
-  </si>
-  <si>
-    <t>MARIA MONICA LARA GAVIRIA</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>57460326</t>
-  </si>
-  <si>
-    <t>MAGDA MILENA VILLEGAS SANTA</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1002494168</t>
-  </si>
-  <si>
-    <t>ANGELLI TOVAR GUZMAN</t>
-  </si>
-  <si>
-    <t>1039086517</t>
-  </si>
-  <si>
-    <t>DERLY FLORES RODRIGUEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -391,7 +388,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,7 +443,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -459,9 +458,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -661,23 +658,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,10 +702,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,13 +743,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -761,7 +758,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E46F2B-4C0D-F731-D7F5-562C2ADC5B25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002DF706-D7C4-158D-8FB1-024B04EA7D22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,7 +780,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1112,32 +1109,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1246A719-402D-4094-AD39-F9A2ED94DEAA}">
-  <dimension ref="B2:J111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F67DC-2F71-41D1-AA39-CFD7AA1EC275}">
+  <dimension ref="B2:J106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1146,7 +1143,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1157,7 +1154,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1168,7 +1165,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1179,10 +1176,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1195,8 +1192,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1211,15 +1208,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2776099</v>
+        <v>2567348</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1227,27 +1224,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1267,16 +1264,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1290,53 +1287,53 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>3935</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>7869</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>5208</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1345,21 +1342,21 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>10416</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1368,18 +1365,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1391,18 +1388,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1414,18 +1411,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1437,18 +1434,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1460,18 +1457,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1483,18 +1480,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1506,18 +1503,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1529,18 +1526,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1552,18 +1549,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1575,18 +1572,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1598,18 +1595,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1621,18 +1618,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1644,18 +1641,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1667,18 +1664,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1690,18 +1687,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1713,18 +1710,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1736,18 +1733,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1759,18 +1756,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1782,18 +1779,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1805,18 +1802,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1828,18 +1825,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1851,18 +1848,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1874,18 +1871,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1897,18 +1894,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1920,18 +1917,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1943,18 +1940,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1966,18 +1963,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1989,18 +1986,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -2012,18 +2009,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2035,18 +2032,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2058,18 +2055,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2081,18 +2078,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2104,18 +2101,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2127,18 +2124,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2150,18 +2147,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2173,18 +2170,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2196,18 +2193,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2219,18 +2216,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2242,18 +2239,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2265,18 +2262,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2288,18 +2285,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2311,18 +2308,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2334,18 +2331,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2357,41 +2354,41 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2403,18 +2400,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2426,18 +2423,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2449,18 +2446,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2472,18 +2469,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2495,18 +2492,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2518,18 +2515,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2541,18 +2538,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2564,18 +2561,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2587,18 +2584,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2610,18 +2607,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2633,18 +2630,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2656,18 +2653,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2679,18 +2676,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2702,18 +2699,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2725,18 +2722,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2748,18 +2745,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2771,18 +2768,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2794,18 +2791,18 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2817,18 +2814,18 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2840,18 +2837,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2863,18 +2860,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2886,18 +2883,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2909,18 +2906,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2932,18 +2929,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2955,18 +2952,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2978,18 +2975,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3001,18 +2998,18 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3024,18 +3021,18 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3047,18 +3044,18 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3070,18 +3067,18 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3093,21 +3090,21 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F95" s="18">
-        <v>10416</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3116,67 +3113,67 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F96" s="18">
-        <v>3935</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F97" s="18">
-        <v>7869</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F98" s="18">
-        <v>5208</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3185,195 +3182,80 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D99" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E99" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="22" t="s">
+    <row r="100" spans="2:10">
+      <c r="B100" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D105" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F105" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G105" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="26"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="32" t="s">
+      <c r="F100" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G100" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="26"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="H105" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="H106" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="H110" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="H111" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H105:J105"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
